--- a/1. Projektplanung und Dokumentation/01_Product_Backlog.xlsx
+++ b/1. Projektplanung und Dokumentation/01_Product_Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thude0-my.sharepoint.com/personal/jecklu01_hs-ulm_de/Documents/5. Semester/Software Projekt/RaytRazor/1. Projektplanung/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luke/Desktop/RaytRazor/1. Projektplanung und Dokumentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1100" documentId="11_AD4DB114E441178AC67DF4622615E776693EDF11" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FF1A03A-DCE0-4BBE-B600-E7716E76B1D5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CDF91F-BF50-FC4E-A360-453EF1E4FC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product-Backlog" sheetId="1" r:id="rId1"/>
@@ -502,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -543,32 +543,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,83 +594,6 @@
           <bgColor rgb="FF7E11AF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thick">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thick">
-          <color auto="1"/>
-        </left>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thick">
-          <color auto="1"/>
-        </left>
-        <right style="thick">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -887,6 +795,83 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -907,28 +892,24 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{637C7F0C-036B-4704-9330-87E77AC2CA73}" name="Tabelle5" displayName="Tabelle5" ref="A3:F66" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{637C7F0C-036B-4704-9330-87E77AC2CA73}" name="Tabelle5" displayName="Tabelle5" ref="A3:F66" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
   <autoFilter ref="A3:F66" xr:uid="{637C7F0C-036B-4704-9330-87E77AC2CA73}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{201166DE-250E-4841-A2FB-745D597FF3E9}" name="Status" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{201166DE-250E-4841-A2FB-745D597FF3E9}" name="Status" dataDxfId="10">
       <calculatedColumnFormula>IF($G$3="", "[Auswählen]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A81DA036-E59B-45ED-99C0-7DA578D2F41E}" name="ID" dataDxfId="13">
+    <tableColumn id="2" xr3:uid="{A81DA036-E59B-45ED-99C0-7DA578D2F41E}" name="ID" dataDxfId="9">
       <calculatedColumnFormula>ROW()-ROW('Product-Backlog'!$B$3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{67C87643-0AEC-4F3F-93A3-8AEBECB97CD3}" name="Beschreibung" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{39A480AF-C7AB-4A2D-A3A9-017A9988CD1E}" name="Priorität" dataDxfId="11">
+    <tableColumn id="3" xr3:uid="{67C87643-0AEC-4F3F-93A3-8AEBECB97CD3}" name="Beschreibung" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{39A480AF-C7AB-4A2D-A3A9-017A9988CD1E}" name="Priorität" dataDxfId="7">
       <calculatedColumnFormula>IF($G$3="", "[Auswählen]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F7F4B23B-3880-466E-A27E-72BD382F2D29}" name="Aufwand" dataDxfId="10">
+    <tableColumn id="5" xr3:uid="{F7F4B23B-3880-466E-A27E-72BD382F2D29}" name="Aufwand" dataDxfId="6">
       <calculatedColumnFormula>IF($G$3="", "[Auswählen]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9BFAA39F-E911-47E7-A57A-71690B5E810B}" name="Bemerkung" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{9BFAA39F-E911-47E7-A57A-71690B5E810B}" name="Bemerkung" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1212,43 +1193,43 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A33" zoomScale="160" zoomScaleNormal="205" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="140" zoomScaleNormal="205" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="52.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="52.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="23" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
-    </row>
-    <row r="2" spans="1:6" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -1268,7 +1249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1289,7 +1270,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -1310,7 +1291,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
@@ -1328,7 +1309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
@@ -1346,7 +1327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
@@ -1364,7 +1345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>2</v>
       </c>
@@ -1382,7 +1363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
@@ -1400,9 +1381,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" s="4">
         <f>ROW()-ROW('Product-Backlog'!$B$3)</f>
@@ -1418,7 +1399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>2</v>
       </c>
@@ -1436,7 +1417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>2</v>
       </c>
@@ -1454,7 +1435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>2</v>
       </c>
@@ -1475,7 +1456,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>2</v>
       </c>
@@ -1493,7 +1474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>2</v>
       </c>
@@ -1511,7 +1492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -1529,7 +1510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -1547,7 +1528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -1565,7 +1546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -1586,7 +1567,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
@@ -1604,7 +1585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
@@ -1622,7 +1603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
@@ -1640,7 +1621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
@@ -1658,7 +1639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,7 +1657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>2</v>
       </c>
@@ -1697,773 +1678,738 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="19">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="4">
         <f>ROW()-ROW('Product-Backlog'!$B$3)</f>
         <v>24</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="19">
-        <v>4</v>
-      </c>
-      <c r="E27" s="21">
-        <v>4</v>
-      </c>
-      <c r="F27" s="22"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="19">
+      <c r="D27" s="4">
+        <v>4</v>
+      </c>
+      <c r="E27" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="4">
         <f>ROW()-ROW('Product-Backlog'!$B$3)</f>
         <v>25</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="19">
-        <v>4</v>
-      </c>
-      <c r="E28" s="21">
-        <v>4</v>
-      </c>
-      <c r="F28" s="22"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="19">
+      <c r="D28" s="4">
+        <v>4</v>
+      </c>
+      <c r="E28" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="4">
         <f>ROW()-ROW('Product-Backlog'!$B$3)</f>
         <v>26</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="19">
-        <v>4</v>
-      </c>
-      <c r="E29" s="21">
-        <v>4</v>
-      </c>
-      <c r="F29" s="22"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="19">
+      <c r="D29" s="4">
+        <v>4</v>
+      </c>
+      <c r="E29" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="4">
         <f>ROW()-ROW('Product-Backlog'!$B$3)</f>
         <v>27</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="19">
-        <v>4</v>
-      </c>
-      <c r="E30" s="21">
-        <v>4</v>
-      </c>
-      <c r="F30" s="22"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="19">
+      <c r="D30" s="4">
+        <v>4</v>
+      </c>
+      <c r="E30" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="4">
         <f>ROW()-ROW('Product-Backlog'!$B$3)</f>
         <v>28</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="19">
-        <v>4</v>
-      </c>
-      <c r="E31" s="21">
-        <v>4</v>
-      </c>
-      <c r="F31" s="22" t="s">
+      <c r="D31" s="4">
+        <v>4</v>
+      </c>
+      <c r="E31" s="1">
+        <v>4</v>
+      </c>
+      <c r="F31" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="19">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="4">
         <f>ROW()-ROW('Product-Backlog'!$B$3)</f>
         <v>29</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="19">
-        <v>4</v>
-      </c>
-      <c r="E32" s="21">
-        <v>3</v>
-      </c>
-      <c r="F32" s="22"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="19">
+      <c r="D32" s="4">
+        <v>4</v>
+      </c>
+      <c r="E32" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="4">
         <f>ROW()-ROW('Product-Backlog'!$B$3)</f>
         <v>30</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="19">
-        <v>4</v>
-      </c>
-      <c r="E33" s="21">
-        <v>3</v>
-      </c>
-      <c r="F33" s="22"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="19">
+      <c r="D33" s="4">
+        <v>4</v>
+      </c>
+      <c r="E33" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="4">
         <f>ROW()-ROW('Product-Backlog'!$B$3)</f>
         <v>31</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="19">
-        <v>4</v>
-      </c>
-      <c r="E34" s="21">
-        <v>4</v>
-      </c>
-      <c r="F34" s="22"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="19">
+      <c r="D34" s="4">
+        <v>4</v>
+      </c>
+      <c r="E34" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="4">
         <f>ROW()-ROW('Product-Backlog'!$B$3)</f>
         <v>32</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="19">
-        <v>4</v>
-      </c>
-      <c r="E35" s="21">
-        <v>4</v>
-      </c>
-      <c r="F35" s="22"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="19">
+      <c r="D35" s="4">
+        <v>4</v>
+      </c>
+      <c r="E35" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="4">
         <f>ROW()-ROW('Product-Backlog'!$B$3)</f>
         <v>33</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="19">
-        <v>4</v>
-      </c>
-      <c r="E36" s="21">
-        <v>4</v>
-      </c>
-      <c r="F36" s="22"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="19">
+      <c r="D36" s="4">
+        <v>4</v>
+      </c>
+      <c r="E36" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="4">
         <f>ROW()-ROW('Product-Backlog'!$B$3)</f>
         <v>34</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="4">
         <v>5</v>
       </c>
-      <c r="E37" s="21">
-        <v>3</v>
-      </c>
-      <c r="F37" s="22"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="19">
+      <c r="E37" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="4">
         <f>ROW()-ROW('Product-Backlog'!$B$3)</f>
         <v>35</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D38" s="4">
         <v>5</v>
       </c>
-      <c r="E38" s="21">
-        <v>2</v>
-      </c>
-      <c r="F38" s="22" t="s">
+      <c r="E38" s="1">
+        <v>2</v>
+      </c>
+      <c r="F38" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" s="19">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="4">
         <f>ROW()-ROW('Product-Backlog'!$B$3)</f>
         <v>36</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="19">
-        <v>4</v>
-      </c>
-      <c r="E39" s="21">
-        <v>3</v>
-      </c>
-      <c r="F39" s="22"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="19">
+      <c r="D39" s="4">
+        <v>4</v>
+      </c>
+      <c r="E39" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="4">
         <f>ROW()-ROW('Product-Backlog'!$B$3)</f>
         <v>37</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="19">
-        <v>4</v>
-      </c>
-      <c r="E40" s="21">
-        <v>2</v>
-      </c>
-      <c r="F40" s="22"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41" s="19">
+      <c r="D40" s="4">
+        <v>4</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="4">
         <f>ROW()-ROW('Product-Backlog'!$B$3)</f>
         <v>38</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D41" s="4">
         <v>5</v>
       </c>
-      <c r="E41" s="21">
-        <v>2</v>
-      </c>
-      <c r="F41" s="22" t="s">
+      <c r="E41" s="1">
+        <v>2</v>
+      </c>
+      <c r="F41" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="19">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="4">
         <f>ROW()-ROW('Product-Backlog'!$B$3)</f>
         <v>39</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="19">
-        <v>3</v>
-      </c>
-      <c r="E42" s="21">
-        <v>3</v>
-      </c>
-      <c r="F42" s="22"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="19">
+      <c r="D42" s="4">
+        <v>3</v>
+      </c>
+      <c r="E42" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="4">
         <f>ROW()-ROW('Product-Backlog'!$B$3)</f>
         <v>40</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="19">
-        <v>4</v>
-      </c>
-      <c r="E43" s="21">
-        <v>3</v>
-      </c>
-      <c r="F43" s="22"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="19">
+      <c r="D43" s="4">
+        <v>4</v>
+      </c>
+      <c r="E43" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="4">
         <f>ROW()-ROW('Product-Backlog'!$B$3)</f>
         <v>41</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="19">
-        <v>4</v>
-      </c>
-      <c r="E44" s="21">
-        <v>3</v>
-      </c>
-      <c r="F44" s="22"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="19">
+      <c r="D44" s="4">
+        <v>4</v>
+      </c>
+      <c r="E44" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="4">
         <f>ROW()-ROW('Product-Backlog'!$B$3)</f>
         <v>42</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="19">
-        <v>3</v>
-      </c>
-      <c r="E45" s="21">
-        <v>2</v>
-      </c>
-      <c r="F45" s="22"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="19">
+      <c r="D45" s="4">
+        <v>3</v>
+      </c>
+      <c r="E45" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="4">
         <f>ROW()-ROW('Product-Backlog'!$B$3)</f>
         <v>43</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D46" s="19">
-        <v>4</v>
-      </c>
-      <c r="E46" s="21">
-        <v>4</v>
-      </c>
-      <c r="F46" s="22"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="19">
+      <c r="D46" s="4">
+        <v>4</v>
+      </c>
+      <c r="E46" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="4">
         <f>ROW()-ROW('Product-Backlog'!$B$3)</f>
         <v>44</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="19">
-        <v>4</v>
-      </c>
-      <c r="E47" s="21">
-        <v>3</v>
-      </c>
-      <c r="F47" s="22"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="19">
+      <c r="D47" s="4">
+        <v>4</v>
+      </c>
+      <c r="E47" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="4">
         <f>ROW()-ROW('Product-Backlog'!$B$3)</f>
         <v>45</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="19">
-        <v>4</v>
-      </c>
-      <c r="E48" s="21">
-        <v>4</v>
-      </c>
-      <c r="F48" s="22"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="19">
+      <c r="D48" s="4">
+        <v>4</v>
+      </c>
+      <c r="E48" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="4">
         <f>ROW()-ROW('Product-Backlog'!$B$3)</f>
         <v>46</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D49" s="19">
-        <v>4</v>
-      </c>
-      <c r="E49" s="21">
-        <v>3</v>
-      </c>
-      <c r="F49" s="22"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" s="19">
+      <c r="D49" s="4">
+        <v>4</v>
+      </c>
+      <c r="E49" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="4">
         <f>ROW()-ROW('Product-Backlog'!$B$3)</f>
         <v>47</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D50" s="4">
         <v>5</v>
       </c>
-      <c r="E50" s="21">
-        <v>2</v>
-      </c>
-      <c r="F50" s="22"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="19">
+      <c r="E50" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="4">
         <f>ROW()-ROW('Product-Backlog'!$B$3)</f>
         <v>48</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D51" s="19">
-        <v>2</v>
-      </c>
-      <c r="E51" s="21">
-        <v>3</v>
-      </c>
-      <c r="F51" s="22"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B52" s="19">
+      <c r="D51" s="4">
+        <v>2</v>
+      </c>
+      <c r="E51" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="4">
         <f>ROW()-ROW('Product-Backlog'!$B$3)</f>
         <v>49</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D52" s="19">
-        <v>3</v>
-      </c>
-      <c r="E52" s="21">
-        <v>4</v>
-      </c>
-      <c r="F52" s="22"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B53" s="19">
+      <c r="D52" s="4">
+        <v>3</v>
+      </c>
+      <c r="E52" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="4">
         <f>ROW()-ROW('Product-Backlog'!$B$3)</f>
         <v>50</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D53" s="19">
-        <v>3</v>
-      </c>
-      <c r="E53" s="21">
-        <v>4</v>
-      </c>
-      <c r="F53" s="22"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" s="19">
+      <c r="D53" s="4">
+        <v>3</v>
+      </c>
+      <c r="E53" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="4">
         <f>ROW()-ROW('Product-Backlog'!$B$3)</f>
         <v>51</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="19">
+      <c r="D54" s="4">
         <v>5</v>
       </c>
-      <c r="E54" s="21">
-        <v>2</v>
-      </c>
-      <c r="F54" s="22" t="s">
+      <c r="E54" s="1">
+        <v>2</v>
+      </c>
+      <c r="F54" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" s="19">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="4">
         <f>ROW()-ROW('Product-Backlog'!$B$3)</f>
         <v>52</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D55" s="19">
+      <c r="D55" s="4">
         <v>5</v>
       </c>
-      <c r="E55" s="21">
-        <v>3</v>
-      </c>
-      <c r="F55" s="22"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" s="19">
+      <c r="E55" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="4">
         <f>ROW()-ROW('Product-Backlog'!$B$3)</f>
         <v>53</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D56" s="19">
-        <v>4</v>
-      </c>
-      <c r="E56" s="21">
-        <v>4</v>
-      </c>
-      <c r="F56" s="22"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B57" s="19">
+      <c r="D56" s="4">
+        <v>4</v>
+      </c>
+      <c r="E56" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="4">
         <f>ROW()-ROW('Product-Backlog'!$B$3)</f>
         <v>54</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D57" s="19">
-        <v>4</v>
-      </c>
-      <c r="E57" s="21">
-        <v>3</v>
-      </c>
-      <c r="F57" s="22"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" s="19">
+      <c r="D57" s="4">
+        <v>4</v>
+      </c>
+      <c r="E57" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="4">
         <f>ROW()-ROW('Product-Backlog'!$B$3)</f>
         <v>55</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D58" s="19">
-        <v>4</v>
-      </c>
-      <c r="E58" s="21">
-        <v>2</v>
-      </c>
-      <c r="F58" s="22"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B59" s="19">
+      <c r="D58" s="4">
+        <v>4</v>
+      </c>
+      <c r="E58" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="4">
         <f>ROW()-ROW('Product-Backlog'!$B$3)</f>
         <v>56</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D59" s="19">
-        <v>4</v>
-      </c>
-      <c r="E59" s="21">
-        <v>3</v>
-      </c>
-      <c r="F59" s="22"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" s="19">
+      <c r="D59" s="4">
+        <v>4</v>
+      </c>
+      <c r="E59" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="4">
         <f>ROW()-ROW('Product-Backlog'!$B$3)</f>
         <v>57</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D60" s="19">
-        <v>4</v>
-      </c>
-      <c r="E60" s="21">
-        <v>3</v>
-      </c>
-      <c r="F60" s="22"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B61" s="19">
+      <c r="D60" s="4">
+        <v>4</v>
+      </c>
+      <c r="E60" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="4">
         <f>ROW()-ROW('Product-Backlog'!$B$3)</f>
         <v>58</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D61" s="19">
-        <v>4</v>
-      </c>
-      <c r="E61" s="21">
-        <v>3</v>
-      </c>
-      <c r="F61" s="22"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B62" s="19">
+      <c r="D61" s="4">
+        <v>4</v>
+      </c>
+      <c r="E61" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="4">
         <f>ROW()-ROW('Product-Backlog'!$B$3)</f>
         <v>59</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D62" s="19">
-        <v>4</v>
-      </c>
-      <c r="E62" s="21">
-        <v>3</v>
-      </c>
-      <c r="F62" s="22"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B63" s="19">
+      <c r="D62" s="4">
+        <v>4</v>
+      </c>
+      <c r="E62" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="4">
         <f>ROW()-ROW('Product-Backlog'!$B$3)</f>
         <v>60</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D63" s="19">
-        <v>4</v>
-      </c>
-      <c r="E63" s="21">
-        <v>3</v>
-      </c>
-      <c r="F63" s="22"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" s="19">
+      <c r="D63" s="4">
+        <v>4</v>
+      </c>
+      <c r="E63" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="4">
         <f>ROW()-ROW('Product-Backlog'!$B$3)</f>
         <v>61</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D64" s="19">
-        <v>4</v>
-      </c>
-      <c r="E64" s="21">
-        <v>3</v>
-      </c>
-      <c r="F64" s="22"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" s="19">
+      <c r="D64" s="4">
+        <v>4</v>
+      </c>
+      <c r="E64" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="4">
         <f>ROW()-ROW('Product-Backlog'!$B$3)</f>
         <v>62</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D65" s="19">
+      <c r="D65" s="4">
         <v>5</v>
       </c>
-      <c r="E65" s="21">
-        <v>3</v>
-      </c>
-      <c r="F65" s="22"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B66" s="19">
+      <c r="E65" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="4">
         <f>ROW()-ROW('Product-Backlog'!$B$3)</f>
         <v>63</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D66" s="19">
+      <c r="D66" s="4">
         <v>5</v>
       </c>
-      <c r="E66" s="21">
-        <v>3</v>
-      </c>
-      <c r="F66" s="22" t="s">
+      <c r="E66" s="1">
+        <v>3</v>
+      </c>
+      <c r="F66" s="11" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2531,14 +2477,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2549,7 +2495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2560,7 +2506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2571,7 +2517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2582,7 +2528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2593,7 +2539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2604,7 +2550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
